--- a/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
+++ b/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Estado da Resolução de Diagnóstico ou Problema.</t>
+    <t>Estado da Resolução de Diagnóstico ou Problema</t>
   </si>
   <si>
     <t>Status</t>

--- a/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
+++ b/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
   <si>
     <t>Property</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -100,9 +100,6 @@
   </si>
   <si>
     <t>Concept</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>Ativo</t>
@@ -431,66 +428,66 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B2" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B4" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>35</v>
-      </c>
-      <c r="B5" t="s" s="2">
-        <v>36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s" s="2">
         <v>37</v>
-      </c>
-      <c r="B6" t="s" s="2">
-        <v>38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>42</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
+++ b/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
+++ b/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
+++ b/docs/ValueSet-BREstadoResolucaoDiagnosticoProblema-1.0.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Condition Clinic" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
